--- a/data/financial_statements/socf/AEP.xlsx
+++ b/data/financial_statements/socf/AEP.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -110,9 +227,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +279,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -475,144 +586,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>684000000</v>
+        <v>683300000</v>
       </c>
       <c r="C2">
-        <v>525000000</v>
+        <v>520800000</v>
       </c>
       <c r="D2">
-        <v>715000000</v>
+        <v>718100000</v>
       </c>
       <c r="E2">
-        <v>539000000</v>
+        <v>538600000</v>
       </c>
       <c r="F2">
-        <v>796000000</v>
+        <v>796900000</v>
       </c>
       <c r="G2">
         <v>573800000</v>
@@ -718,23 +829,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>822000000</v>
+        <v>821800000</v>
       </c>
       <c r="C3">
-        <v>780000000</v>
+        <v>779700000</v>
       </c>
       <c r="D3">
-        <v>815000000</v>
+        <v>815300000</v>
       </c>
       <c r="E3">
-        <v>881000000</v>
+        <v>942500000</v>
       </c>
       <c r="F3">
-        <v>722000000</v>
+        <v>700300000</v>
       </c>
       <c r="G3">
         <v>651800000</v>
@@ -840,8 +951,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>594500000</v>
@@ -962,23 +1073,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>-50000000</v>
+        <v>-49900000</v>
       </c>
       <c r="C5">
-        <v>-422000000</v>
+        <v>-421500000</v>
       </c>
       <c r="D5">
-        <v>-24000000</v>
+        <v>-24300000</v>
       </c>
       <c r="E5">
-        <v>80000000</v>
+        <v>79500000</v>
       </c>
       <c r="F5">
-        <v>16000000</v>
+        <v>16300000</v>
       </c>
       <c r="G5">
         <v>-202600000</v>
@@ -1084,23 +1195,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>-24000000</v>
+        <v>-24100000</v>
       </c>
       <c r="C6">
-        <v>-138000000</v>
+        <v>-138100000</v>
       </c>
       <c r="D6">
-        <v>28000000</v>
+        <v>27600000</v>
       </c>
       <c r="E6">
-        <v>-47000000</v>
+        <v>-47200000</v>
       </c>
       <c r="F6">
-        <v>215000000</v>
+        <v>215100000</v>
       </c>
       <c r="G6">
         <v>92800000</v>
@@ -1206,8 +1317,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>-115400000</v>
@@ -1328,23 +1439,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>-115000000</v>
+        <v>-294600000</v>
       </c>
       <c r="C8">
-        <v>486000000</v>
+        <v>-166400000</v>
       </c>
       <c r="D8">
-        <v>-1000000</v>
+        <v>-51800000</v>
       </c>
       <c r="E8">
-        <v>93000000</v>
+        <v>689800000</v>
       </c>
       <c r="F8">
-        <v>10000000</v>
+        <v>-233700000</v>
       </c>
       <c r="G8">
         <v>-156600000</v>
@@ -1450,23 +1561,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>-101000000</v>
+        <v>126900000</v>
       </c>
       <c r="C9">
-        <v>195000000</v>
+        <v>187700000</v>
       </c>
       <c r="D9">
-        <v>54000000</v>
+        <v>135500000</v>
       </c>
       <c r="E9">
-        <v>-446000000</v>
+        <v>-564800000</v>
       </c>
       <c r="F9">
-        <v>201000000</v>
+        <v>172600000</v>
       </c>
       <c r="G9">
         <v>13200000</v>
@@ -1572,23 +1683,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>1743000000</v>
+        <v>1742500000</v>
       </c>
       <c r="C10">
-        <v>1369000000</v>
+        <v>1368500000</v>
       </c>
       <c r="D10">
-        <v>1622000000</v>
+        <v>1622200000</v>
       </c>
       <c r="E10">
-        <v>1015000000</v>
+        <v>866900000</v>
       </c>
       <c r="F10">
-        <v>1929000000</v>
+        <v>1929100000</v>
       </c>
       <c r="G10">
         <v>1161100000</v>
@@ -1694,8 +1805,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>-1603200000</v>
@@ -1816,8 +1927,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>-24200000</v>
@@ -1826,13 +1937,13 @@
         <v>-36600000</v>
       </c>
       <c r="D12">
-        <v>-1207000000</v>
+        <v>-1238400000</v>
       </c>
       <c r="E12">
         <v>-41300000</v>
       </c>
       <c r="F12">
-        <v>-383000000</v>
+        <v>-383100000</v>
       </c>
       <c r="G12">
         <v>-288500000</v>
@@ -1938,8 +2049,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>-24899900</v>
@@ -2060,23 +2171,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>10000000</v>
+        <v>28800000</v>
       </c>
       <c r="C14">
-        <v>-59000000</v>
+        <v>-27400000</v>
       </c>
       <c r="D14">
-        <v>-23000000</v>
+        <v>42900000</v>
       </c>
       <c r="E14">
-        <v>53000000</v>
+        <v>116700000</v>
       </c>
       <c r="F14">
-        <v>102000000</v>
+        <v>14300000</v>
       </c>
       <c r="G14">
         <v>-9300000</v>
@@ -2182,23 +2293,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>-1624000000</v>
+        <v>-1623500000</v>
       </c>
       <c r="C15">
-        <v>-1306000000</v>
+        <v>-1305800000</v>
       </c>
       <c r="D15">
-        <v>-2893000000</v>
+        <v>-2893200000</v>
       </c>
       <c r="E15">
-        <v>-1528000000</v>
+        <v>-1527700000</v>
       </c>
       <c r="F15">
-        <v>-1676000000</v>
+        <v>-1676400000</v>
       </c>
       <c r="G15">
         <v>-1595600000</v>
@@ -2304,23 +2415,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>251000000</v>
+        <v>250800000</v>
       </c>
       <c r="C16">
-        <v>266000000</v>
+        <v>266300000</v>
       </c>
       <c r="D16">
-        <v>1200000000</v>
+        <v>1200200000</v>
       </c>
       <c r="E16">
-        <v>-72000000</v>
+        <v>75800000</v>
       </c>
       <c r="F16">
-        <v>817000000</v>
+        <v>816500000</v>
       </c>
       <c r="G16">
         <v>820500000</v>
@@ -2426,8 +2537,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>14500000</v>
@@ -2539,23 +2650,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>-409000000</v>
       </c>
       <c r="C18">
-        <v>-405000000</v>
+        <v>-404700000</v>
       </c>
       <c r="D18">
-        <v>-399000000</v>
+        <v>-398800000</v>
       </c>
       <c r="E18">
-        <v>-397000000</v>
+        <v>-396800000</v>
       </c>
       <c r="F18">
-        <v>-376000000</v>
+        <v>-376200000</v>
       </c>
       <c r="G18">
         <v>-374500000</v>
@@ -2661,23 +2772,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>803000000</v>
+        <v>-19200000</v>
       </c>
       <c r="C19">
-        <v>81000000</v>
+        <v>-31800000</v>
       </c>
       <c r="D19">
-        <v>18000000</v>
+        <v>-65800000</v>
       </c>
       <c r="E19">
-        <v>-820000000</v>
+        <v>-46000000</v>
       </c>
       <c r="F19">
-        <v>285000000</v>
+        <v>82900000</v>
       </c>
       <c r="G19">
         <v>-48100000</v>
@@ -2783,23 +2894,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>-163000000</v>
+        <v>-162900000</v>
       </c>
       <c r="C20">
         <v>-167000000</v>
       </c>
       <c r="D20">
-        <v>1545000000</v>
+        <v>1545100000</v>
       </c>
       <c r="E20">
-        <v>-462000000</v>
+        <v>-314500000</v>
       </c>
       <c r="F20">
-        <v>814000000</v>
+        <v>814300000</v>
       </c>
       <c r="G20">
         <v>470200000</v>
@@ -2905,8 +3016,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2937,20 +3048,20 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>-44000000</v>
+        <v>-43900000</v>
       </c>
       <c r="C22">
-        <v>-104000000</v>
+        <v>-104300000</v>
       </c>
       <c r="D22">
-        <v>274000000</v>
+        <v>274100000</v>
       </c>
       <c r="E22">
-        <v>-975000000</v>
+        <v>-975300000</v>
       </c>
       <c r="F22">
         <v>1067000000</v>
@@ -3059,8 +3170,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3181,8 +3292,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>-43900000</v>
@@ -3303,8 +3414,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>-409000000</v>
@@ -3425,23 +3536,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>0.8321</v>
+        <v>0.8325</v>
       </c>
       <c r="C26">
-        <v>0.7458</v>
+        <v>0.7463</v>
       </c>
       <c r="D26">
-        <v>0.7193000000000001</v>
+        <v>0.7192</v>
       </c>
       <c r="E26">
-        <v>0.7894</v>
+        <v>0.7949000000000001</v>
       </c>
       <c r="F26">
-        <v>0.8713</v>
+        <v>0.8709</v>
       </c>
       <c r="G26">
         <v>0.8434</v>
@@ -3547,8 +3658,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>-357100100</v>
@@ -3669,8 +3780,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>-24899900</v>
@@ -3791,8 +3902,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>14500000</v>
@@ -3904,8 +4015,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>14500000</v>
